--- a/StructureDefinition-Forecast-uc1.xlsx
+++ b/StructureDefinition-Forecast-uc1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="87">
   <si>
     <t>Path</t>
   </si>
@@ -227,9 +227,6 @@
 The date the subject's Immunization Forecast Status was generated may not be the same as the Immunization Forecast Date.</t>
   </si>
   <si>
-    <t>ImmunizationRecommendation.date</t>
-  </si>
-  <si>
     <t>Forecast.status</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
 Provides the status of a subject towards immunity against a Vaccine Preventable Disease.  Values may include due, overdue, no longer recommended etc.)  A subject's immunization forecast status changes over time and is dependent on the interval of time between immunizations, the subject's age and other risk factors (e.g. pregnancy).  </t>
   </si>
   <si>
-    <t>ImmunizationRecommendation.recommendation.forecastStatus</t>
-  </si>
-  <si>
     <t>Forecast.description</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
 This information assists the clinician and subject in understanding the Immunization Forecast Status.  (e.g., Recommend 3 doses of the HPV vaccine starting at age 15 years)</t>
   </si>
   <si>
-    <t>ImmunizationRecommendation.description</t>
-  </si>
-  <si>
     <t>Forecast.supportingInformation</t>
   </si>
   <si>
@@ -273,9 +264,6 @@
 This includes elaboration of the Immunization Forecast Status, Immunization Forecast Description, observations, adverse reactions etc..</t>
   </si>
   <si>
-    <t>ImmunizationRecommendation.supportingImmunization</t>
-  </si>
-  <si>
     <t>Forecast.date</t>
   </si>
   <si>
@@ -289,9 +277,6 @@
     <t>Represents the description of the protocol as determined by the Organization Responsible for Immunization Administration that pertains to the subject.</t>
   </si>
   <si>
-    <t>ImmunizationRecommendation.recommendation.dateCriterion</t>
-  </si>
-  <si>
     <t>Forecast.date.type</t>
   </si>
   <si>
@@ -302,17 +287,11 @@
 This data element must align and be used with Immunization Forecast Date data element.  Examples of values to support this data element include: the earliest due date, latest due date (the recommended date) for administration of the vaccine.</t>
   </si>
   <si>
-    <t>ImmunizationRecommendation.recommendation.dateCriterion.code</t>
-  </si>
-  <si>
     <t>Forecast.date.value</t>
   </si>
   <si>
     <t>The date provided in the subject's immunization forecast whose meaning relates to the Immunization Forecast Date Type.
 This data element must align and be used with the Immunization Forecast Date Type data element.</t>
-  </si>
-  <si>
-    <t>ImmunizationRecommendation.recommendation.dateCriterion.value</t>
   </si>
 </sst>
 </file>
@@ -505,7 +484,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="64.27734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="16.37109375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1030,7 +1009,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1038,7 +1017,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1052,22 +1031,22 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1118,7 +1097,7 @@
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
@@ -1133,7 +1112,7 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -1141,7 +1120,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1167,10 +1146,10 @@
         <v>48</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1221,7 +1200,7 @@
         <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
@@ -1236,7 +1215,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -1244,7 +1223,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1270,10 +1249,10 @@
         <v>48</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1324,7 +1303,7 @@
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -1339,7 +1318,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -1347,7 +1326,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1361,7 +1340,7 @@
         <v>43</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -1370,13 +1349,13 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1427,7 +1406,7 @@
         <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -1442,7 +1421,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1450,7 +1429,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1473,13 +1452,13 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1530,7 +1509,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -1545,7 +1524,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -1553,7 +1532,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1567,7 +1546,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -1579,10 +1558,10 @@
         <v>64</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1633,7 +1612,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -1648,7 +1627,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
